--- a/input/manual_data_input.xlsx
+++ b/input/manual_data_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code_COWI\1D Solver\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DE9D8A-9CF0-4A24-B6D2-4B9BE4A11F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5820FE-7F03-4CE4-823D-8CD59E3E93EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="772" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2350,30 +2350,6 @@
           </rPr>
           <t xml:space="preserve">
 Water depth including scour. Only used for printing, not used in calculation!</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R6" authorId="2" shapeId="0" xr:uid="{A3F73CF5-514F-449A-B6B6-7AD8D965BC34}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Pooyan Ghasemi:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-the values are phi(LB)-5</t>
         </r>
       </text>
     </comment>
@@ -38068,8 +38044,8 @@
   </sheetPr>
   <dimension ref="A1:AT255"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AT20" sqref="AT20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38415,7 +38391,7 @@
         <v>109</v>
       </c>
       <c r="AT5" s="33">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
@@ -38439,62 +38415,64 @@
         <v>0</v>
       </c>
       <c r="L6" s="92" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M6" s="83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N6" s="79">
-        <v>10.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="O6" s="78">
         <v>0</v>
       </c>
       <c r="P6" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="79">
         <v>40</v>
       </c>
-      <c r="Q6" s="79">
-        <v>0</v>
-      </c>
-      <c r="R6" s="79" t="e">
+      <c r="R6" s="79">
         <f>IF(Q6&lt;&gt;0,Q6-5,NA())</f>
-        <v>#N/A</v>
+        <v>35</v>
       </c>
       <c r="S6" s="79">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="T6" s="79">
         <v>0</v>
       </c>
       <c r="U6" s="80">
-        <v>1.7999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="V6" s="80">
         <v>0</v>
       </c>
       <c r="W6" s="79">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="X6" s="88">
-        <v>12800</v>
+        <v>26200</v>
       </c>
       <c r="Y6" s="79">
         <v>0</v>
       </c>
       <c r="Z6" s="79">
-        <v>0</v>
+        <f t="shared" ref="Z6" si="0">VLOOKUP(R6,$AE$39:$AF$59,2)</f>
+        <v>114.99999999999996</v>
       </c>
       <c r="AA6" s="79">
         <v>1</v>
       </c>
       <c r="AB6" s="79">
-        <v>0</v>
+        <f t="shared" ref="AB6" si="1">VLOOKUP(R6,$AE$39:$AG$59,3)</f>
+        <v>12000</v>
       </c>
       <c r="AC6" s="78">
-        <v>4000</v>
+        <v>24000</v>
       </c>
       <c r="AD6" s="78">
-        <v>20000</v>
+        <v>12957.746478873238</v>
       </c>
       <c r="AE6" s="78">
         <v>0.3</v>
@@ -38512,7 +38490,8 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="79">
-        <v>0</v>
+        <f t="shared" ref="AJ6" si="2">VLOOKUP(R6,$AE$39:$AH$59,4)</f>
+        <v>50.000000000000007</v>
       </c>
       <c r="AK6" s="79">
         <v>1</v>
@@ -38536,13 +38515,13 @@
         <v>0</v>
       </c>
       <c r="AR6" s="79">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AS6" s="81">
         <v>0.4</v>
       </c>
       <c r="AT6" s="33">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
@@ -38608,14 +38587,14 @@
         <v>0</v>
       </c>
       <c r="Z7" s="79">
-        <f t="shared" ref="Z7:Z15" si="0">VLOOKUP(R7,$AE$39:$AF$59,2)</f>
+        <f t="shared" ref="Z7:Z15" si="3">VLOOKUP(R7,$AE$39:$AF$59,2)</f>
         <v>114.99999999999996</v>
       </c>
       <c r="AA7" s="79">
         <v>1</v>
       </c>
       <c r="AB7" s="79">
-        <f t="shared" ref="AB7:AB15" si="1">VLOOKUP(R7,$AE$39:$AG$59,3)</f>
+        <f t="shared" ref="AB7:AB15" si="4">VLOOKUP(R7,$AE$39:$AG$59,3)</f>
         <v>12000</v>
       </c>
       <c r="AC7" s="78">
@@ -38640,7 +38619,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="79">
-        <f t="shared" ref="AJ7:AJ15" si="2">VLOOKUP(R7,$AE$39:$AH$59,4)</f>
+        <f t="shared" ref="AJ7:AJ15" si="5">VLOOKUP(R7,$AE$39:$AH$59,4)</f>
         <v>50.000000000000007</v>
       </c>
       <c r="AK7" s="79">
@@ -38671,7 +38650,7 @@
         <v>0.4</v>
       </c>
       <c r="AT7" s="33">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
@@ -38688,7 +38667,7 @@
         <v>49</v>
       </c>
       <c r="G8" s="71">
-        <v>15778.957475994501</v>
+        <v>10778.957475994501</v>
       </c>
       <c r="H8" s="45" t="s">
         <v>53</v>
@@ -38721,7 +38700,7 @@
         <v>37</v>
       </c>
       <c r="R8" s="79">
-        <f t="shared" ref="R8:R16" si="3">IF(Q8&lt;&gt;0,Q8-5,NA())</f>
+        <f t="shared" ref="R8:R16" si="6">IF(Q8&lt;&gt;0,Q8-5,NA())</f>
         <v>32</v>
       </c>
       <c r="S8" s="79">
@@ -38746,14 +38725,14 @@
         <v>0</v>
       </c>
       <c r="Z8" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>103.59999999999997</v>
       </c>
       <c r="AA8" s="79">
         <v>1</v>
       </c>
       <c r="AB8" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10560</v>
       </c>
       <c r="AC8" s="78">
@@ -38778,7 +38757,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>44.000000000000007</v>
       </c>
       <c r="AK8" s="79">
@@ -38809,7 +38788,7 @@
         <v>0.4</v>
       </c>
       <c r="AT8" s="33">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
@@ -38862,7 +38841,7 @@
         <v>39</v>
       </c>
       <c r="R9" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="S9" s="79">
@@ -38887,14 +38866,14 @@
         <v>0</v>
       </c>
       <c r="Z9" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>111.19999999999996</v>
       </c>
       <c r="AA9" s="79">
         <v>1</v>
       </c>
       <c r="AB9" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11520</v>
       </c>
       <c r="AC9" s="78">
@@ -38919,7 +38898,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>48.000000000000007</v>
       </c>
       <c r="AK9" s="79">
@@ -38950,7 +38929,7 @@
         <v>0.4</v>
       </c>
       <c r="AT9" s="33">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:46" s="56" customFormat="1" x14ac:dyDescent="0.25">
@@ -39003,7 +38982,7 @@
         <v>40</v>
       </c>
       <c r="R10" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="S10" s="79">
@@ -39028,14 +39007,14 @@
         <v>0</v>
       </c>
       <c r="Z10" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>114.99999999999996</v>
       </c>
       <c r="AA10" s="79">
         <v>1</v>
       </c>
       <c r="AB10" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
       <c r="AC10" s="78">
@@ -39060,7 +39039,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50.000000000000007</v>
       </c>
       <c r="AK10" s="79">
@@ -39091,7 +39070,7 @@
         <v>0.4</v>
       </c>
       <c r="AT10" s="33">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
@@ -39141,7 +39120,7 @@
         <v>26</v>
       </c>
       <c r="R11" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="S11" s="79">
@@ -39166,14 +39145,14 @@
         <v>0</v>
       </c>
       <c r="Z11" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>69.799999999999983</v>
       </c>
       <c r="AA11" s="79">
         <v>1</v>
       </c>
       <c r="AB11" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3280</v>
       </c>
       <c r="AC11" s="78">
@@ -39229,7 +39208,7 @@
         <v>0.2</v>
       </c>
       <c r="AT11" s="33">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
@@ -39237,7 +39216,7 @@
         <v>74</v>
       </c>
       <c r="B12" s="57">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="C12" s="45" t="s">
         <v>28</v>
@@ -39280,7 +39259,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="79" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="S12" s="79">
@@ -39365,7 +39344,7 @@
         <v>0.4</v>
       </c>
       <c r="AT12" s="33">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
@@ -39410,7 +39389,7 @@
         <v>28</v>
       </c>
       <c r="R13" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="S13" s="79">
@@ -39435,14 +39414,14 @@
         <v>0</v>
       </c>
       <c r="Z13" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>75.399999999999977</v>
       </c>
       <c r="AA13" s="79">
         <v>1</v>
       </c>
       <c r="AB13" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4040</v>
       </c>
       <c r="AC13" s="78">
@@ -39467,7 +39446,7 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16.800000000000004</v>
       </c>
       <c r="AK13" s="79">
@@ -39498,7 +39477,7 @@
         <v>0.4</v>
       </c>
       <c r="AT13" s="33">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
@@ -39548,7 +39527,7 @@
         <v>28</v>
       </c>
       <c r="R14" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="S14" s="79">
@@ -39573,14 +39552,14 @@
         <v>0</v>
       </c>
       <c r="Z14" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>75.399999999999977</v>
       </c>
       <c r="AA14" s="79">
         <v>1</v>
       </c>
       <c r="AB14" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4040</v>
       </c>
       <c r="AC14" s="78">
@@ -39605,7 +39584,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16.800000000000004</v>
       </c>
       <c r="AK14" s="79">
@@ -39636,7 +39615,7 @@
         <v>0.4</v>
       </c>
       <c r="AT14" s="33">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
@@ -39677,7 +39656,7 @@
         <v>28</v>
       </c>
       <c r="R15" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="S15" s="79">
@@ -39702,14 +39681,14 @@
         <v>0</v>
       </c>
       <c r="Z15" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>75.399999999999977</v>
       </c>
       <c r="AA15" s="79">
         <v>1</v>
       </c>
       <c r="AB15" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4040</v>
       </c>
       <c r="AC15" s="78">
@@ -39734,7 +39713,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16.800000000000004</v>
       </c>
       <c r="AK15" s="79">
@@ -39765,7 +39744,7 @@
         <v>0.4</v>
       </c>
       <c r="AT15" s="33">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
@@ -39812,7 +39791,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="79" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="S16" s="79">
@@ -39897,7 +39876,7 @@
         <v>0.4</v>
       </c>
       <c r="AT16" s="33">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:45" s="56" customFormat="1" x14ac:dyDescent="0.25">
@@ -40764,15 +40743,15 @@
         <v>17</v>
       </c>
       <c r="AF41" s="33">
-        <f t="shared" ref="AF41:AF44" si="4">AF40+3.8</f>
+        <f t="shared" ref="AF41:AF44" si="7">AF40+3.8</f>
         <v>55.599999999999994</v>
       </c>
       <c r="AG41" s="33">
-        <f t="shared" ref="AG41:AG43" si="5">AG40+200</f>
+        <f t="shared" ref="AG41:AG43" si="8">AG40+200</f>
         <v>2300</v>
       </c>
       <c r="AH41" s="33">
-        <f t="shared" ref="AH41:AH44" si="6">AH40+0.8</f>
+        <f t="shared" ref="AH41:AH44" si="9">AH40+0.8</f>
         <v>9.6000000000000014</v>
       </c>
     </row>
@@ -40782,15 +40761,15 @@
         <v>18</v>
       </c>
       <c r="AF42" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>59.399999999999991</v>
       </c>
       <c r="AG42" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2500</v>
       </c>
       <c r="AH42" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10.400000000000002</v>
       </c>
     </row>
@@ -40800,15 +40779,15 @@
         <v>19</v>
       </c>
       <c r="AF43" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>63.199999999999989</v>
       </c>
       <c r="AG43" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2700</v>
       </c>
       <c r="AH43" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11.200000000000003</v>
       </c>
     </row>
@@ -40818,7 +40797,7 @@
         <v>20</v>
       </c>
       <c r="AF44" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>66.999999999999986</v>
       </c>
       <c r="AG44" s="33">
@@ -40826,7 +40805,7 @@
         <v>2900</v>
       </c>
       <c r="AH44" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>12.000000000000004</v>
       </c>
     </row>
@@ -40854,15 +40833,15 @@
         <v>22</v>
       </c>
       <c r="AF46" s="33">
-        <f t="shared" ref="AF46:AF49" si="7">AF45+2.8</f>
+        <f t="shared" ref="AF46:AF49" si="10">AF45+2.8</f>
         <v>72.59999999999998</v>
       </c>
       <c r="AG46" s="33">
-        <f t="shared" ref="AG46:AG48" si="8">AG45+380</f>
+        <f t="shared" ref="AG46:AG48" si="11">AG45+380</f>
         <v>3660</v>
       </c>
       <c r="AH46" s="33">
-        <f t="shared" ref="AH46:AH49" si="9">AH45+1.6</f>
+        <f t="shared" ref="AH46:AH49" si="12">AH45+1.6</f>
         <v>15.200000000000003</v>
       </c>
     </row>
@@ -40872,15 +40851,15 @@
         <v>23</v>
       </c>
       <c r="AF47" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>75.399999999999977</v>
       </c>
       <c r="AG47" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4040</v>
       </c>
       <c r="AH47" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>16.800000000000004</v>
       </c>
     </row>
@@ -40890,15 +40869,15 @@
         <v>24</v>
       </c>
       <c r="AF48" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>78.199999999999974</v>
       </c>
       <c r="AG48" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4420</v>
       </c>
       <c r="AH48" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>18.400000000000006</v>
       </c>
     </row>
@@ -40908,14 +40887,14 @@
         <v>25</v>
       </c>
       <c r="AF49" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>80.999999999999972</v>
       </c>
       <c r="AG49" s="33">
         <v>4800</v>
       </c>
       <c r="AH49" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>20.000000000000007</v>
       </c>
     </row>
@@ -40943,15 +40922,15 @@
         <v>27</v>
       </c>
       <c r="AF51" s="33">
-        <f t="shared" ref="AF51:AF54" si="10">AF50+3</f>
+        <f t="shared" ref="AF51:AF54" si="13">AF50+3</f>
         <v>86.999999999999972</v>
       </c>
       <c r="AG51" s="33">
-        <f t="shared" ref="AG51:AG54" si="11">AG50+960</f>
+        <f t="shared" ref="AG51:AG54" si="14">AG50+960</f>
         <v>6720</v>
       </c>
       <c r="AH51" s="33">
-        <f t="shared" ref="AH51:AH54" si="12">AH50+4</f>
+        <f t="shared" ref="AH51:AH54" si="15">AH50+4</f>
         <v>28.000000000000007</v>
       </c>
     </row>
@@ -40961,15 +40940,15 @@
         <v>28</v>
       </c>
       <c r="AF52" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>89.999999999999972</v>
       </c>
       <c r="AG52" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7680</v>
       </c>
       <c r="AH52" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>32.000000000000007</v>
       </c>
     </row>
@@ -40979,15 +40958,15 @@
         <v>29</v>
       </c>
       <c r="AF53" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>92.999999999999972</v>
       </c>
       <c r="AG53" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>8640</v>
       </c>
       <c r="AH53" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>36.000000000000007</v>
       </c>
     </row>
@@ -40997,15 +40976,15 @@
         <v>30</v>
       </c>
       <c r="AF54" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>95.999999999999972</v>
       </c>
       <c r="AG54" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9600</v>
       </c>
       <c r="AH54" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>40.000000000000007</v>
       </c>
     </row>
@@ -41033,15 +41012,15 @@
         <v>32</v>
       </c>
       <c r="AF56" s="33">
-        <f t="shared" ref="AF56:AF59" si="13">AF55+3.8</f>
+        <f t="shared" ref="AF56:AF59" si="16">AF55+3.8</f>
         <v>103.59999999999997</v>
       </c>
       <c r="AG56" s="33">
-        <f t="shared" ref="AG56:AG59" si="14">AG55+480</f>
+        <f t="shared" ref="AG56:AG59" si="17">AG55+480</f>
         <v>10560</v>
       </c>
       <c r="AH56" s="33">
-        <f t="shared" ref="AH56:AH59" si="15">AH55+2</f>
+        <f t="shared" ref="AH56:AH59" si="18">AH55+2</f>
         <v>44.000000000000007</v>
       </c>
     </row>
@@ -41051,15 +41030,15 @@
         <v>33</v>
       </c>
       <c r="AF57" s="33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>107.39999999999996</v>
       </c>
       <c r="AG57" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>11040</v>
       </c>
       <c r="AH57" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>46.000000000000007</v>
       </c>
     </row>
@@ -41069,15 +41048,15 @@
         <v>34</v>
       </c>
       <c r="AF58" s="33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>111.19999999999996</v>
       </c>
       <c r="AG58" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>11520</v>
       </c>
       <c r="AH58" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>48.000000000000007</v>
       </c>
     </row>
@@ -41087,15 +41066,15 @@
         <v>35</v>
       </c>
       <c r="AF59" s="33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>114.99999999999996</v>
       </c>
       <c r="AG59" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>12000</v>
       </c>
       <c r="AH59" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>50.000000000000007</v>
       </c>
     </row>

--- a/input/manual_data_input.xlsx
+++ b/input/manual_data_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code_COWI\1D Solver\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5820FE-7F03-4CE4-823D-8CD59E3E93EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1C57C3-E470-4C20-97DA-5B01D1E71C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="772" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4851,7 +4851,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="128">
   <si>
     <t>layer</t>
   </si>
@@ -5318,6 +5318,9 @@
   </si>
   <si>
     <t>Jeanjean clay</t>
+  </si>
+  <si>
+    <t>Np_Jeanjean</t>
   </si>
 </sst>
 </file>
@@ -38044,8 +38047,8 @@
   </sheetPr>
   <dimension ref="A1:AT255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AT20" sqref="AT20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38088,7 +38091,9 @@
     <col min="39" max="39" width="11.7109375" style="33" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="11.5703125" style="33" bestFit="1" customWidth="1"/>
     <col min="41" max="42" width="11.5703125" style="33" customWidth="1"/>
-    <col min="43" max="16384" width="9.140625" style="33"/>
+    <col min="43" max="45" width="9.140625" style="33"/>
+    <col min="46" max="46" width="12.140625" style="33" customWidth="1"/>
+    <col min="47" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
@@ -38262,7 +38267,7 @@
         <v>123</v>
       </c>
       <c r="AT4" s="70" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="17.25" x14ac:dyDescent="0.25">
@@ -38391,7 +38396,7 @@
         <v>109</v>
       </c>
       <c r="AT5" s="33">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
@@ -38521,7 +38526,7 @@
         <v>0.4</v>
       </c>
       <c r="AT6" s="33">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
@@ -38650,7 +38655,7 @@
         <v>0.4</v>
       </c>
       <c r="AT7" s="33">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
@@ -38788,7 +38793,7 @@
         <v>0.4</v>
       </c>
       <c r="AT8" s="33">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
@@ -38929,7 +38934,7 @@
         <v>0.4</v>
       </c>
       <c r="AT9" s="33">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:46" s="56" customFormat="1" x14ac:dyDescent="0.25">
@@ -39070,7 +39075,7 @@
         <v>0.4</v>
       </c>
       <c r="AT10" s="33">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
@@ -39208,7 +39213,7 @@
         <v>0.2</v>
       </c>
       <c r="AT11" s="33">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
@@ -39344,7 +39349,7 @@
         <v>0.4</v>
       </c>
       <c r="AT12" s="33">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
@@ -39477,7 +39482,7 @@
         <v>0.4</v>
       </c>
       <c r="AT13" s="33">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
@@ -39615,7 +39620,7 @@
         <v>0.4</v>
       </c>
       <c r="AT14" s="33">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
@@ -39744,7 +39749,7 @@
         <v>0.4</v>
       </c>
       <c r="AT15" s="33">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
@@ -39876,7 +39881,7 @@
         <v>0.4</v>
       </c>
       <c r="AT16" s="33">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:45" s="56" customFormat="1" x14ac:dyDescent="0.25">
